--- a/india_REV_input/Scenarios_Cost_Master.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -33,6 +33,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ranjit</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ranjit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For scenarios with different upfront costs like wind, solar, battery, there will be a common econ dispatch suffix.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ranjit</author>
@@ -213,7 +247,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ranjit</author>
@@ -371,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="423">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1072,9 +1106,6 @@
     <t>high_cost_coal</t>
   </si>
   <si>
-    <t>55min_gen</t>
-  </si>
-  <si>
     <t>hydro_low25p</t>
   </si>
   <si>
@@ -1637,6 +1668,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>coal_55mingen</t>
+  </si>
+  <si>
+    <t>economic_dispatch_folder_suffix</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1688,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,6 +1729,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2041,14 +2091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,63 +2132,63 @@
         <v>232</v>
       </c>
       <c r="E1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>238</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>239</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>240</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>241</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>243</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>245</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>246</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>247</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>248</v>
-      </c>
-      <c r="U1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="C2" s="21" t="str">
         <f>C3</f>
@@ -2219,10 +2269,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:U3" si="1">CONCATENATE(C9,C12,C14,C16,C18,C22,C26,C29,C32,C35,C37,C40)</f>
+        <f t="shared" ref="C3:U3" si="1">CONCATENATE(C10,C13,C15,C17,C19,C23,C27,C30,C33,C36,C38,C41)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D3" t="str">
@@ -2300,91 +2350,91 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:U4" si="2">CONCATENATE(C10,C14,C16,C18,C29,C32,C35,C37,C40)</f>
-        <v>coallc</v>
+        <f>CONCATENATE(C10,C13,C15,C17,C19,C30,C33,C36,C38,C41)</f>
+        <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
-        <v>coalhc</v>
+        <f t="shared" ref="D4:U4" si="2">CONCATENATE(D10,D13,D15,D17,D19,D30,D33,D36,D38,D41)</f>
+        <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcH-25</v>
+        <v>ClcC70mH-25</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcH25</v>
+        <v>ClcC70mH25</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcN64</v>
+        <v>ClcC70mN64</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcB15</v>
+        <v>ClcC70mB15</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcB30</v>
+        <v>ClcC70mB30</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="2"/>
-        <v>coallc</v>
+        <v>ClcC70m</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcW120</v>
+        <v>ClcC70mW120</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcS1A</v>
+        <v>ClcC70mS1A</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcS90d</v>
+        <v>ClcC70mS90d</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="2"/>
-        <v>coallcLmod</v>
+        <v>ClcC70mLmod</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:U5" si="3">CONCATENATE(C10,C14,C16,C18,C29,C32,C35,C37,C40)</f>
+        <f t="shared" ref="C5:U5" si="3">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
@@ -2462,1851 +2512,1851 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:U6" si="4">CONCATENATE(C30,"_",C33)</f>
-        <v>W80_S0d</v>
+        <f t="shared" ref="C6:U6" si="4">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
+        <v>coallc</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coalhc</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcH-25</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcH25</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcN64</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcB15</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcB30</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallc</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="4"/>
-        <v>W120_S0d</v>
+        <v>coallcW120</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S1A</v>
+        <v>coallcS1A</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S90d</v>
+        <v>coallcS90d</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>W80_S0d</v>
+        <v>coallcLmod</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(C10,C22,C26)</f>
-        <v>coallc</v>
+        <f t="shared" ref="C7:U7" si="5">CONCATENATE(C31,"_",C34)</f>
+        <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:U7" si="5">CONCATENATE(D10,D22,D26)</f>
-        <v>coalhc</v>
+        <f t="shared" si="5"/>
+        <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcW10lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcW20lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcW30lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcS10lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcS20lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcS30lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
-        <v>coallcW30lcS30lc</v>
+        <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W120_S0d</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S1A</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="5"/>
-        <v>coallc</v>
+        <v>W80_S90d</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="5"/>
+        <v>W80_S0d</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(C11,C23,C27)</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:U8" si="6">CONCATENATE(D11,D23,D27)</f>
+        <v>coalhc</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcW10lc</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcW20lc</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcW30lc</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcS10lc</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcS20lc</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcS30lc</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallcW30lcS30lc</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="6"/>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" t="str">
-        <f>CONCATENATE("C", LEFT(C8,1), "c")</f>
-        <v>Clc</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" ref="D9:U9" si="6">CONCATENATE("C", LEFT(D8,1), "c")</f>
-        <v>Chc</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="6"/>
-        <v>Clc</v>
+      <c r="E9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:U10" si="7">CONCATENATE("coal",LEFT(C8,1), "c")</f>
-        <v>coallc</v>
+        <f>CONCATENATE("C", LEFT(C9,1), "c")</f>
+        <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="7"/>
-        <v>coalhc</v>
+        <f t="shared" ref="D10:U10" si="7">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <v>Chc</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="7"/>
-        <v>coallc</v>
+        <v>Clc</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="7"/>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:U11" si="8">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="8"/>
+        <v>coalhc</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="8"/>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C12" s="21">
+        <v>70</v>
+      </c>
+      <c r="D12" s="21">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21">
+        <v>55</v>
+      </c>
+      <c r="F12" s="21">
+        <v>70</v>
+      </c>
+      <c r="G12" s="21">
+        <v>70</v>
+      </c>
+      <c r="H12" s="21">
+        <v>70</v>
+      </c>
+      <c r="I12" s="21">
+        <v>70</v>
+      </c>
+      <c r="J12" s="21">
+        <v>70</v>
+      </c>
+      <c r="K12" s="21">
+        <v>70</v>
+      </c>
+      <c r="L12" s="21">
+        <v>70</v>
+      </c>
+      <c r="M12" s="21">
+        <v>70</v>
+      </c>
+      <c r="N12" s="21">
+        <v>70</v>
+      </c>
+      <c r="O12" s="21">
+        <v>70</v>
+      </c>
+      <c r="P12" s="21">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>70</v>
+      </c>
+      <c r="R12" s="21">
+        <v>70</v>
+      </c>
+      <c r="S12" s="21">
+        <v>70</v>
+      </c>
+      <c r="T12" s="21">
+        <v>70</v>
+      </c>
+      <c r="U12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="21">
-        <v>70</v>
-      </c>
-      <c r="D11" s="21">
-        <v>70</v>
-      </c>
-      <c r="E11" s="21">
-        <v>55</v>
-      </c>
-      <c r="F11" s="21">
-        <v>70</v>
-      </c>
-      <c r="G11" s="21">
-        <v>70</v>
-      </c>
-      <c r="H11" s="21">
-        <v>70</v>
-      </c>
-      <c r="I11" s="21">
-        <v>70</v>
-      </c>
-      <c r="J11" s="21">
-        <v>70</v>
-      </c>
-      <c r="K11" s="21">
-        <v>70</v>
-      </c>
-      <c r="L11" s="21">
-        <v>70</v>
-      </c>
-      <c r="M11" s="21">
-        <v>70</v>
-      </c>
-      <c r="N11" s="21">
-        <v>70</v>
-      </c>
-      <c r="O11" s="21">
-        <v>70</v>
-      </c>
-      <c r="P11" s="21">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>70</v>
-      </c>
-      <c r="R11" s="21">
-        <v>70</v>
-      </c>
-      <c r="S11" s="21">
-        <v>70</v>
-      </c>
-      <c r="T11" s="21">
-        <v>70</v>
-      </c>
-      <c r="U11" s="21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="str">
+        <f>CONCATENATE("C",C12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:U13" si="9">CONCATENATE("C",D12,"m")</f>
+        <v>C70m</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="9"/>
+        <v>C55m</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="9"/>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C12" t="str">
-        <f>CONCATENATE("C",C11,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ref="D12:U12" si="8">CONCATENATE("C",D11,"m")</f>
-        <v>C70m</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="8"/>
-        <v>C55m</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="R12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="8"/>
-        <v>C70m</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>-25</v>
+      </c>
+      <c r="G14" s="21">
+        <v>25</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <v>0</v>
+      </c>
+      <c r="P14" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <v>0</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>-25</v>
-      </c>
-      <c r="G13" s="21">
-        <v>25</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0</v>
-      </c>
-      <c r="N13" s="21">
-        <v>0</v>
-      </c>
-      <c r="O13" s="21">
-        <v>0</v>
-      </c>
-      <c r="P13" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="21">
-        <v>0</v>
-      </c>
-      <c r="U13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="str">
+        <f t="shared" ref="C15:U15" si="10">IF(C14=0,"",CONCATENATE("H",C14))</f>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="10"/>
+        <v>H-25</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="10"/>
+        <v>H25</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" ref="C14:U14" si="9">IF(C13=0,"",CONCATENATE("H",C13))</f>
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="9"/>
-        <v>H-25</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="9"/>
-        <v>H25</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <v>64</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
-        <v>64</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
-        <v>0</v>
-      </c>
-      <c r="L15" s="21">
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <v>0</v>
-      </c>
-      <c r="N15" s="21">
-        <v>0</v>
-      </c>
-      <c r="O15" s="21">
-        <v>0</v>
-      </c>
-      <c r="P15" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>0</v>
-      </c>
-      <c r="R15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="21">
-        <v>0</v>
-      </c>
-      <c r="T15" s="21">
-        <v>0</v>
-      </c>
-      <c r="U15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" t="str">
+        <f t="shared" ref="C17:U17" si="11">IF(C16=0,"",CONCATENATE("N",C16))</f>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="11"/>
+        <v>N64</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" ref="C16:U16" si="10">IF(C15=0,"",CONCATENATE("N",C15))</f>
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="10"/>
-        <v>N64</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="R16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
         <v>15</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J18" s="21">
         <v>30</v>
       </c>
-      <c r="K17" s="21">
-        <v>0</v>
-      </c>
-      <c r="L17" s="21">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="21">
-        <v>0</v>
-      </c>
-      <c r="O17" s="21">
-        <v>0</v>
-      </c>
-      <c r="P17" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>0</v>
-      </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
-        <v>0</v>
-      </c>
-      <c r="T17" s="21">
-        <v>0</v>
-      </c>
-      <c r="U17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18:U18" si="11">IF(C17=0,"",CONCATENATE("B",C17))</f>
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="11"/>
-        <v>B15</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="11"/>
-        <v>B30</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0</v>
+      </c>
+      <c r="R18" s="21">
+        <v>0</v>
+      </c>
+      <c r="S18" s="21">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
+        <v>0</v>
+      </c>
+      <c r="U18" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:U19" si="12">CONCATENATE("bat", C17)</f>
-        <v>bat0</v>
+        <f t="shared" ref="C19:U19" si="12">IF(C18=0,"",CONCATENATE("B",C18))</f>
+        <v/>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="12"/>
-        <v>bat15</v>
+        <v>B15</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="12"/>
-        <v>bat30</v>
+        <v>B30</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="12"/>
-        <v>bat0</v>
+        <v/>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:U20" si="13">CONCATENATE("bat", C18)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat15</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat30</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="13"/>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
         <v>10</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L21" s="21">
         <v>20</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M21" s="21">
         <v>30</v>
       </c>
-      <c r="N20" s="21">
-        <v>0</v>
-      </c>
-      <c r="O20" s="21">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21">
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
         <v>30</v>
       </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="21">
-        <v>0</v>
-      </c>
-      <c r="U20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G21" t="s">
-        <v>259</v>
-      </c>
-      <c r="H21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I21" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" t="s">
-        <v>259</v>
-      </c>
-      <c r="K21" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" t="s">
-        <v>259</v>
-      </c>
-      <c r="N21" t="s">
-        <v>259</v>
-      </c>
-      <c r="O21" t="s">
-        <v>259</v>
-      </c>
-      <c r="P21" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>259</v>
-      </c>
-      <c r="R21" t="s">
-        <v>259</v>
-      </c>
-      <c r="S21" t="s">
-        <v>259</v>
-      </c>
-      <c r="T21" t="s">
-        <v>259</v>
-      </c>
-      <c r="U21" t="s">
-        <v>259</v>
+      <c r="R21" s="21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" ref="C22:U22" si="13">IF(C20=0,"",CONCATENATE("W",C20,LEFT(C21,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="13"/>
-        <v>W10lc</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="13"/>
-        <v>W20lc</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="13"/>
-        <v>W30lc</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="13"/>
-        <v>W30lc</v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M22" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" t="s">
+        <v>258</v>
+      </c>
+      <c r="O22" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>258</v>
+      </c>
+      <c r="R22" t="s">
+        <v>258</v>
+      </c>
+      <c r="S22" t="s">
+        <v>258</v>
+      </c>
+      <c r="T22" t="s">
+        <v>258</v>
+      </c>
+      <c r="U22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:U23" si="14">CONCATENATE("wind",UPPER(LEFT(C21,1)), "C",C20)</f>
-        <v>windLC0</v>
+        <f t="shared" ref="C23:U23" si="14">IF(C21=0,"",CONCATENATE("W",C21,LEFT(C22,1),"c"))</f>
+        <v/>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC10</v>
+        <v>W10lc</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC20</v>
+        <v>W20lc</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC30</v>
+        <v>W30lc</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC30</v>
+        <v>W30lc</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="14"/>
-        <v>windLC0</v>
+        <v/>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:U24" si="15">CONCATENATE("wind",UPPER(LEFT(C22,1)), "C",C21)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21">
-        <v>0</v>
-      </c>
-      <c r="K24" s="21">
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="21">
+      <c r="D24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC10</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC20</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC30</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC30</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="15"/>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
         <v>10</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O25" s="21">
         <v>20</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P25" s="21">
         <v>30</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q25" s="21">
         <v>30</v>
       </c>
-      <c r="R24" s="21">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <v>0</v>
-      </c>
-      <c r="T24" s="21">
-        <v>0</v>
-      </c>
-      <c r="U24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>283</v>
-      </c>
-      <c r="B25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" t="s">
-        <v>259</v>
-      </c>
-      <c r="I25" t="s">
-        <v>259</v>
-      </c>
-      <c r="J25" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" t="s">
-        <v>259</v>
-      </c>
-      <c r="M25" t="s">
-        <v>259</v>
-      </c>
-      <c r="N25" t="s">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s">
-        <v>259</v>
-      </c>
-      <c r="P25" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>259</v>
-      </c>
-      <c r="R25" t="s">
-        <v>259</v>
-      </c>
-      <c r="S25" t="s">
-        <v>259</v>
-      </c>
-      <c r="T25" t="s">
-        <v>259</v>
-      </c>
-      <c r="U25" t="s">
-        <v>259</v>
+      <c r="R25" s="21">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ref="C26:M26" si="15">IF(C24=0,"",CONCATENATE("W",C24,LEFT(C25,1),"c"))</f>
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" ref="N26:U26" si="16">IF(N24=0,"",CONCATENATE("S",N24,LEFT(N25,1),"c"))</f>
-        <v>S10lc</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="16"/>
-        <v>S20lc</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="16"/>
-        <v>S30lc</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="16"/>
-        <v>S30lc</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="s">
+        <v>258</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>258</v>
+      </c>
+      <c r="R26" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" t="s">
+        <v>258</v>
+      </c>
+      <c r="T26" t="s">
+        <v>258</v>
+      </c>
+      <c r="U26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:U27" si="17">CONCATENATE("solar",UPPER(LEFT(C25,1)), "C",C24)</f>
-        <v>solarLC0</v>
+        <f t="shared" ref="C27:M27" si="16">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <f t="shared" si="16"/>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="17"/>
-        <v>solarLC10</v>
+        <f t="shared" ref="N27:U27" si="17">IF(N25=0,"",CONCATENATE("S",N25,LEFT(N26,1),"c"))</f>
+        <v>S10lc</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC20</v>
+        <v>S20lc</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC30</v>
+        <v>S30lc</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC30</v>
+        <v>S30lc</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <v/>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <v/>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="17"/>
-        <v>solarLC0</v>
+        <v/>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:U28" si="18">CONCATENATE("solar",UPPER(LEFT(C26,1)), "C",C25)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC10</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC20</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC30</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC30</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="18"/>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="C29" s="21">
         <v>80</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="21">
         <v>80</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E29" s="21">
         <v>80</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="21">
         <v>80</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21">
         <v>80</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="21">
         <v>80</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I29" s="21">
         <v>80</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J29" s="21">
         <v>80</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K29" s="21">
         <v>80</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L29" s="21">
         <v>80</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M29" s="21">
         <v>80</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N29" s="21">
         <v>80</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O29" s="21">
         <v>80</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P29" s="21">
         <v>80</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q29" s="21">
         <v>80</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R29" s="21">
         <v>120</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S29" s="21">
         <v>80</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T29" s="21">
         <v>80</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U29" s="21">
         <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" ref="C29:U29" si="18">IF(C28=80,"", CONCATENATE("W",C28))</f>
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="18"/>
-        <v>W120</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="18"/>
-        <v/>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:U30" si="19">CONCATENATE("W",C28)</f>
-        <v>W80</v>
+        <f t="shared" ref="C30:U30" si="19">IF(C29=80,"", CONCATENATE("W",C29))</f>
+        <v/>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="19"/>
@@ -4314,230 +4364,230 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="19"/>
-        <v>W80</v>
+        <v/>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ref="C31:U31" si="20">CONCATENATE("W",C29)</f>
         <v>W80</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="20"/>
+        <v>W120</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="20"/>
+        <v>W80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="S32" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="K31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="O31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="S31" s="21" t="s">
+      <c r="T32" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="T31" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" ref="C32:U32" si="20">IF(C31="0d", "", CONCATENATE("S",C31))</f>
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="20"/>
-        <v>S1A</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="20"/>
-        <v>S90d</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+      <c r="U32" s="21" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:U33" si="21">CONCATENATE("S",C31)</f>
-        <v>S0d</v>
+        <f t="shared" ref="C33:U33" si="21">IF(C32="0d", "", CONCATENATE("S",C32))</f>
+        <v/>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="21"/>
-        <v>S0d</v>
+        <v/>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="21"/>
@@ -4549,510 +4599,592 @@
       </c>
       <c r="U33" t="str">
         <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:U34" si="22">CONCATENATE("S",C32)</f>
         <v>S0d</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="D34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="22"/>
+        <v>S1A</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="22"/>
+        <v>S90d</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="22"/>
+        <v>S0d</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="E35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="F35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="G35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="H35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="I35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="J35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="K35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="L35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="M35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="N35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="O35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="P35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="R35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="S35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="T35" s="21">
+        <v>2014</v>
+      </c>
+      <c r="U35" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="D34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="E34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="F34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="G34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="H34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="I34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="J34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="K34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="L34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="M34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="N34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="O34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="P34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="R34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="S34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="T34" s="21">
-        <v>2014</v>
-      </c>
-      <c r="U34" s="21">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C36" t="str">
+        <f t="shared" ref="C36:U36" si="23">IF(C35=2014,"",CONCATENATE("L",C35))</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" ref="C35:U35" si="22">IF(C34=2014,"",CONCATENATE("L",C34))</f>
-        <v/>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="S35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="B37" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="U37" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="P36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="S36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="T36" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="U36" s="21" t="s">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C38" t="str">
+        <f t="shared" ref="C38:U38" si="24">IF(C37="none","",CONCATENATE("L",C37))</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="24"/>
+        <v>Lmod</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" ref="C37:U37" si="23">IF(C36="none","",CONCATENATE("L",C36))</f>
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="S37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="23"/>
-        <v>Lmod</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="L38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="O38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="T38" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="U38" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>307</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
+      <c r="D39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" ref="C40:U40" si="24">IF(C38="RT","",CONCATENATE(C38,C39))</f>
-        <v/>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="24"/>
+        <v>306</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:U41" si="25">IF(C39="RT","",CONCATENATE(C39,C40))</f>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5072,41 +5204,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
         <v>311</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
-        <v>312</v>
       </c>
       <c r="D3">
         <v>216</v>
@@ -5125,13 +5257,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4">
         <v>88</v>
@@ -5150,10 +5282,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E5">
         <f>D5/60</f>
@@ -5169,13 +5301,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6">
         <v>89</v>
@@ -5202,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5224,7 +5356,7 @@
       </c>
       <c r="D1" t="str">
         <f>REvalue_input_csv!E1</f>
-        <v>55min_gen</v>
+        <v>coal_55mingen</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,39 +5375,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
         <v>420</v>
-      </c>
-      <c r="B4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +5730,7 @@
         <v>3900</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -9849,33 +9981,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>231</v>
@@ -9883,13 +10015,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9897,7 +10029,7 @@
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9905,7 +10037,7 @@
         <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9913,7 +10045,7 @@
         <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9921,7 +10053,7 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9929,7 +10061,7 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9937,7 +10069,7 @@
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9945,7 +10077,7 @@
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9953,7 +10085,7 @@
         <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9961,7 +10093,7 @@
         <v>300</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9969,7 +10101,7 @@
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9977,7 +10109,7 @@
         <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -9985,7 +10117,7 @@
         <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -9993,7 +10125,7 @@
         <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -10001,7 +10133,7 @@
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -10009,442 +10141,442 @@
         <v>400</v>
       </c>
       <c r="C20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>329</v>
+      </c>
+      <c r="E55" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
         <v>330</v>
-      </c>
-      <c r="E55" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" t="s">
-        <v>321</v>
-      </c>
-      <c r="G55" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" t="s">
+        <v>321</v>
+      </c>
+      <c r="G56" t="s">
         <v>328</v>
-      </c>
-      <c r="E56" t="s">
-        <v>322</v>
-      </c>
-      <c r="G56" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/india_REV_input/Scenarios_Cost_Master.xlsx
+++ b/india_REV_input/Scenarios_Cost_Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="REvalue_input_csv" sheetId="11" r:id="rId1"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="424">
   <si>
     <t>Screening curves</t>
   </si>
@@ -1674,6 +1674,9 @@
   </si>
   <si>
     <t>economic_dispatch_folder_suffix</t>
+  </si>
+  <si>
+    <t>wind120HH_solar1A</t>
   </si>
 </sst>
 </file>
@@ -2092,13 +2095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="M27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,10 +2118,12 @@
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>230</v>
       </c>
@@ -2180,10 +2185,13 @@
         <v>247</v>
       </c>
       <c r="U1" t="s">
+        <v>423</v>
+      </c>
+      <c r="V1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>249</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>ChcC70m</v>
       </c>
       <c r="E2" s="21" t="str">
-        <f t="shared" ref="E2:U2" si="0">E3</f>
+        <f t="shared" ref="E2:V2" si="0">E3</f>
         <v>ClcC55m</v>
       </c>
       <c r="F2" s="21" t="str">
@@ -2264,15 +2272,19 @@
       </c>
       <c r="U2" s="21" t="str">
         <f t="shared" si="0"/>
+        <v>ClcC70mW120S1A</v>
+      </c>
+      <c r="V2" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>ClcC70mLmod</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>251</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:U3" si="1">CONCATENATE(C10,C13,C15,C17,C19,C23,C27,C30,C33,C36,C38,C41)</f>
+        <f t="shared" ref="C3:V3" si="1">CONCATENATE(C10,C13,C15,C17,C19,C23,C27,C30,C33,C36,C38,C41)</f>
         <v>ClcC70m</v>
       </c>
       <c r="D3" t="str">
@@ -2344,11 +2356,15 @@
         <v>ClcC70mS90d</v>
       </c>
       <c r="U3" t="str">
+        <f t="shared" ref="U3" si="2">CONCATENATE(U10,U13,U15,U17,U19,U23,U27,U30,U33,U36,U38,U41)</f>
+        <v>ClcC70mW120S1A</v>
+      </c>
+      <c r="V3" t="str">
         <f t="shared" si="1"/>
         <v>ClcC70mLmod</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>422</v>
       </c>
@@ -2357,322 +2373,338 @@
         <v>ClcC70m</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:U4" si="2">CONCATENATE(D10,D13,D15,D17,D19,D30,D33,D36,D38,D41)</f>
+        <f t="shared" ref="D4:V4" si="3">CONCATENATE(D10,D13,D15,D17,D19,D30,D33,D36,D38,D41)</f>
         <v>ChcC70m</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC55m</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mH-25</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mH25</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mN64</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mB15</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mB30</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70m</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mW120</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mS1A</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ClcC70mS90d</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U4" si="4">CONCATENATE(U10,U13,U15,U17,U19,U30,U33,U36,U38,U41)</f>
+        <v>ClcC70mW120S1A</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="3"/>
         <v>ClcC70mLmod</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>252</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:U5" si="3">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
+        <f t="shared" ref="C5:V5" si="5">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
         <v>coallc</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coalhc</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcH-25</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcH25</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcN64</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcB15</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcB30</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallc</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcW120</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcS1A</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>coallcS90d</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U5" si="6">CONCATENATE(U11,U15,U17,U19,U30,U33,U36,U38,U41)</f>
+        <v>coallcW120S1A</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="5"/>
         <v>coallcLmod</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>253</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:U6" si="4">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
+        <f t="shared" ref="C6:V6" si="7">CONCATENATE(C11,C15,C17,C19,C30,C33,C36,C38,C41)</f>
         <v>coallc</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coalhc</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcH-25</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcH25</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcN64</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcB15</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcB30</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallc</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcW120</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcS1A</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>coallcS90d</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U6" si="8">CONCATENATE(U11,U15,U17,U19,U30,U33,U36,U38,U41)</f>
+        <v>coallcW120S1A</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
         <v>coallcLmod</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>254</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:U7" si="5">CONCATENATE(C31,"_",C34)</f>
+        <f t="shared" ref="C7:V7" si="9">CONCATENATE(C31,"_",C34)</f>
         <v>W80_S0d</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W120_S0d</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S1A</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>W80_S90d</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U7" si="10">CONCATENATE(U31,"_",U34)</f>
+        <v>W120_S1A</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="9"/>
         <v>W80_S0d</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>255</v>
       </c>
@@ -2681,79 +2713,83 @@
         <v>coallc</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ref="D8:U8" si="6">CONCATENATE(D11,D23,D27)</f>
+        <f t="shared" ref="D8:V8" si="11">CONCATENATE(D11,D23,D27)</f>
         <v>coalhc</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW10lc</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW20lc</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW30lc</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS10lc</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS20lc</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcS30lc</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallcW30lcS30lc</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>coallc</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U8" si="12">CONCATENATE(U11,U23,U27)</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="str">
+        <f t="shared" si="11"/>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>256</v>
       </c>
@@ -2817,8 +2853,11 @@
       <c r="U9" s="21" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -2827,160 +2866,168 @@
         <v>Clc</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:U10" si="7">CONCATENATE("C", LEFT(D9,1), "c")</f>
+        <f t="shared" ref="D10:V10" si="13">CONCATENATE("C", LEFT(D9,1), "c")</f>
         <v>Chc</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Clc</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U10" si="14">CONCATENATE("C", LEFT(U9,1), "c")</f>
         <v>Clc</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="str">
+        <f t="shared" si="13"/>
+        <v>Clc</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:U11" si="8">CONCATENATE("coal",LEFT(C9,1), "c")</f>
+        <f t="shared" ref="C11:V11" si="15">CONCATENATE("coal",LEFT(C9,1), "c")</f>
         <v>coallc</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coalhc</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>coallc</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U11" si="16">CONCATENATE("coal",LEFT(U9,1), "c")</f>
         <v>coallc</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="str">
+        <f t="shared" si="15"/>
+        <v>coallc</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>262</v>
       </c>
@@ -3044,8 +3091,11 @@
       <c r="U12" s="21">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>264</v>
       </c>
@@ -3054,79 +3104,83 @@
         <v>C70m</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13:U13" si="9">CONCATENATE("C",D12,"m")</f>
+        <f t="shared" ref="D13:V13" si="17">CONCATENATE("C",D12,"m")</f>
         <v>C70m</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C55m</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>C70m</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="U13" si="18">CONCATENATE("C",U12,"m")</f>
         <v>C70m</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="str">
+        <f t="shared" si="17"/>
+        <v>C70m</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>265</v>
       </c>
@@ -3190,89 +3244,96 @@
       <c r="U14" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>267</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:U15" si="10">IF(C14=0,"",CONCATENATE("H",C14))</f>
+        <f t="shared" ref="C15:V15" si="19">IF(C14=0,"",CONCATENATE("H",C14))</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>H-25</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>H25</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U15" si="20">IF(U14=0,"",CONCATENATE("H",U14))</f>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>268</v>
       </c>
@@ -3336,89 +3397,96 @@
       <c r="U16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>270</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:U17" si="11">IF(C16=0,"",CONCATENATE("N",C16))</f>
+        <f t="shared" ref="C17:V17" si="21">IF(C16=0,"",CONCATENATE("N",C16))</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>N64</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U17" si="22">IF(U16=0,"",CONCATENATE("N",U16))</f>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>271</v>
       </c>
@@ -3482,170 +3550,181 @@
       <c r="U18" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>273</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:U19" si="12">IF(C18=0,"",CONCATENATE("B",C18))</f>
+        <f t="shared" ref="C19:V19" si="23">IF(C18=0,"",CONCATENATE("B",C18))</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>B15</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>B30</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U19" si="24">IF(U18=0,"",CONCATENATE("B",U18))</f>
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>274</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:U20" si="13">CONCATENATE("bat", C18)</f>
+        <f t="shared" ref="C20:V20" si="25">CONCATENATE("bat", C18)</f>
         <v>bat0</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat15</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat30</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>bat0</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U20" si="26">CONCATENATE("bat", U18)</f>
         <v>bat0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="str">
+        <f t="shared" si="25"/>
+        <v>bat0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>275</v>
       </c>
@@ -3709,8 +3788,11 @@
       <c r="U21" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -3774,170 +3856,181 @@
       <c r="U22" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>279</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:U23" si="14">IF(C21=0,"",CONCATENATE("W",C21,LEFT(C22,1),"c"))</f>
+        <f t="shared" ref="C23:V23" si="27">IF(C21=0,"",CONCATENATE("W",C21,LEFT(C22,1),"c"))</f>
         <v/>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>W10lc</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>W20lc</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>W30lc</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v>W30lc</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U23" si="28">IF(U21=0,"",CONCATENATE("W",U21,LEFT(U22,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:U24" si="15">CONCATENATE("wind",UPPER(LEFT(C22,1)), "C",C21)</f>
+        <f t="shared" ref="C24:V24" si="29">CONCATENATE("wind",UPPER(LEFT(C22,1)), "C",C21)</f>
         <v>windLC0</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC10</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC20</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC30</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC30</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>windLC0</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="U24" si="30">CONCATENATE("wind",UPPER(LEFT(U22,1)), "C",U21)</f>
         <v>windLC0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="str">
+        <f t="shared" si="29"/>
+        <v>windLC0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>281</v>
       </c>
@@ -4001,8 +4094,11 @@
       <c r="U25" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>282</v>
       </c>
@@ -4066,170 +4162,181 @@
       <c r="U26" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>283</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:M27" si="16">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
+        <f t="shared" ref="C27:M27" si="31">IF(C25=0,"",CONCATENATE("W",C25,LEFT(C26,1),"c"))</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="N27" t="str">
-        <f t="shared" ref="N27:U27" si="17">IF(N25=0,"",CONCATENATE("S",N25,LEFT(N26,1),"c"))</f>
+        <f t="shared" ref="N27:V27" si="32">IF(N25=0,"",CONCATENATE("S",N25,LEFT(N26,1),"c"))</f>
         <v>S10lc</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>S20lc</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>S30lc</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>S30lc</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U27" si="33">IF(U25=0,"",CONCATENATE("S",U25,LEFT(U26,1),"c"))</f>
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>284</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ref="C28:U28" si="18">CONCATENATE("solar",UPPER(LEFT(C26,1)), "C",C25)</f>
+        <f t="shared" ref="C28:V28" si="34">CONCATENATE("solar",UPPER(LEFT(C26,1)), "C",C25)</f>
         <v>solarLC0</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC10</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC20</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC30</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC30</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>solarLC0</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="U28" si="35">CONCATENATE("solar",UPPER(LEFT(U26,1)), "C",U25)</f>
         <v>solarLC0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" t="str">
+        <f t="shared" si="34"/>
+        <v>solarLC0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>285</v>
       </c>
@@ -4291,172 +4398,183 @@
         <v>80</v>
       </c>
       <c r="U29" s="21">
+        <v>120</v>
+      </c>
+      <c r="V29" s="21">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>287</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:U30" si="19">IF(C29=80,"", CONCATENATE("W",C29))</f>
+        <f t="shared" ref="C30:V30" si="36">IF(C29=80,"", CONCATENATE("W",C29))</f>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>W120</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U30" si="37">IF(U29=80,"", CONCATENATE("W",U29))</f>
+        <v>W120</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:U31" si="20">CONCATENATE("W",C29)</f>
+        <f t="shared" ref="C31:V31" si="38">CONCATENATE("W",C29)</f>
         <v>W80</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W120</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="U31" si="39">CONCATENATE("W",U29)</f>
+        <v>W120</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="38"/>
         <v>W80</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>289</v>
       </c>
@@ -4518,172 +4636,183 @@
         <v>293</v>
       </c>
       <c r="U32" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="V32" s="21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>294</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:U33" si="21">IF(C32="0d", "", CONCATENATE("S",C32))</f>
+        <f t="shared" ref="C33:V33" si="40">IF(C32="0d", "", CONCATENATE("S",C32))</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>S1A</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>S90d</v>
       </c>
       <c r="U33" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U33" si="41">IF(U32="0d", "", CONCATENATE("S",U32))</f>
+        <v>S1A</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>295</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:U34" si="22">CONCATENATE("S",C32)</f>
+        <f t="shared" ref="C34:V34" si="42">CONCATENATE("S",C32)</f>
         <v>S0d</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S1A</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>S90d</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="U34" si="43">CONCATENATE("S",U32)</f>
+        <v>S1A</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="42"/>
         <v>S0d</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>296</v>
       </c>
@@ -4745,89 +4874,96 @@
       <c r="U35" s="21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="21">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>297</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36:U36" si="23">IF(C35=2014,"",CONCATENATE("L",C35))</f>
+        <f t="shared" ref="C36:V36" si="44">IF(C35=2014,"",CONCATENATE("L",C35))</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U36" si="45">IF(U35=2014,"",CONCATENATE("L",U35))</f>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>298</v>
       </c>
@@ -4889,91 +5025,98 @@
         <v>300</v>
       </c>
       <c r="U37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="V37" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>302</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ref="C38:U38" si="24">IF(C37="none","",CONCATENATE("L",C37))</f>
+        <f t="shared" ref="C38:V38" si="46">IF(C37="none","",CONCATENATE("L",C37))</f>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="U38" si="47">IF(U37="none","",CONCATENATE("L",U37))</f>
+        <v/>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="46"/>
         <v>Lmod</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>303</v>
       </c>
@@ -5037,8 +5180,11 @@
       <c r="U39" s="21" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -5099,85 +5245,92 @@
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ref="C41:U41" si="25">IF(C39="RT","",CONCATENATE(C39,C40))</f>
+        <f t="shared" ref="C41:V41" si="48">IF(C39="RT","",CONCATENATE(C39,C40))</f>
         <v/>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="U41" si="49">IF(U39="RT","",CONCATENATE(U39,U40))</f>
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
